--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1347638.037977322</v>
+        <v>1343626.235245225</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518387</v>
+        <v>29001646.18518388</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.960140342</v>
+        <v>6432656.960140339</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4580342.597071034</v>
+        <v>4580342.597071035</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>375.5380294553246</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H11" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>58.04236988161365</v>
       </c>
       <c r="T11" t="n">
-        <v>64.18407348805306</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>141.3538316833375</v>
+        <v>16.94559517597285</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S13" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U13" t="n">
         <v>277.3339849899809</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.7129353316187</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>274.5392124624013</v>
+        <v>35.85349756308347</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1776,16 +1776,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
-        <v>134.4334047779237</v>
+        <v>33.76648318653421</v>
       </c>
       <c r="I16" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>107.959048135147</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>103.1868077687734</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>122.272021582053</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -1912,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>38.74961423147138</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.7030512222169</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I19" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S19" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.097464026797</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>19.26238409082574</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>326.0997966796937</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>335.151257870471</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>155.8494983468253</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T22" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U22" t="n">
-        <v>245.7563675706543</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>5.211119789568956</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>127.6623236306954</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S25" t="n">
         <v>152.8999186087154</v>
@@ -2560,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>134.6441656689134</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2572,7 +2572,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H26" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>137.5966889077945</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>284.58848345985</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>151.544847319661</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3031,22 +3031,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>127.1631747791258</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>52.58049640921416</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>419.9881002780244</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>102.7613107443132</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -3426,13 +3426,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>131.2882405440972</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>152.8999186087154</v>
@@ -3486,7 +3486,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>169.8882409121003</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.1801817133737</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>244.6548356735136</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,19 +3663,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>58.01729676871128</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H40" t="n">
         <v>134.4334047779237</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U40" t="n">
         <v>277.3339849899809</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.781485268001246</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>96.20496573055527</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3805,10 +3805,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>341.2208481213481</v>
       </c>
     </row>
     <row r="42">
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>6.192301772151035</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T43" t="n">
         <v>237.097464026797</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>148.4444056304928</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.3546984799025</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>13.2892656870915</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>39.25583804098073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4146,13 +4146,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>163.7030512222169</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S46" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T46" t="n">
-        <v>237.097464026797</v>
+        <v>45.88929686692337</v>
       </c>
       <c r="U46" t="n">
         <v>277.3339849899809</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1594.46149659424</v>
+        <v>871.9880296649121</v>
       </c>
       <c r="C11" t="n">
-        <v>1594.46149659424</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="D11" t="n">
-        <v>1171.16887577924</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="E11" t="n">
-        <v>745.1919359270976</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="F11" t="n">
-        <v>320.0677541164978</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G11" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H11" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J11" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L11" t="n">
         <v>709.5851800848322</v>
@@ -5071,22 +5071,22 @@
         <v>2079.14225834845</v>
       </c>
       <c r="T11" t="n">
-        <v>2014.30986088577</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U11" t="n">
-        <v>2014.30986088577</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V11" t="n">
-        <v>2014.30986088577</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="W11" t="n">
-        <v>2014.30986088577</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="X11" t="n">
-        <v>2014.30986088577</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="Y11" t="n">
-        <v>2014.30986088577</v>
+        <v>1251.319372549078</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J12" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577481</v>
       </c>
       <c r="K12" t="n">
-        <v>289.8146695059645</v>
+        <v>446.8013632259964</v>
       </c>
       <c r="L12" t="n">
-        <v>496.0652591283643</v>
+        <v>653.0519528483962</v>
       </c>
       <c r="M12" t="n">
-        <v>739.8954600838658</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N12" t="n">
-        <v>992.5205257180613</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O12" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P12" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q12" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R12" t="n">
         <v>1815.649874842555</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>761.2817982511397</v>
+        <v>414.5560279306989</v>
       </c>
       <c r="C13" t="n">
-        <v>589.3092351300556</v>
+        <v>414.5560279306989</v>
       </c>
       <c r="D13" t="n">
-        <v>589.3092351300556</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="E13" t="n">
-        <v>423.1010292829092</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="F13" t="n">
         <v>251.2392550574696</v>
@@ -5202,49 +5202,49 @@
         <v>162.634922133069</v>
       </c>
       <c r="K13" t="n">
-        <v>472.7715347749694</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L13" t="n">
-        <v>582.2660249670174</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M13" t="n">
-        <v>698.242083603971</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N13" t="n">
-        <v>1210.770261587371</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O13" t="n">
-        <v>1690.926608658705</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P13" t="n">
-        <v>2088.252358880159</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.770914794524</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S13" t="n">
-        <v>1983.326552563498</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T13" t="n">
-        <v>1983.326552563498</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="U13" t="n">
-        <v>1703.19121418978</v>
+        <v>1457.143326818623</v>
       </c>
       <c r="V13" t="n">
-        <v>1421.479746797809</v>
+        <v>1175.431859426652</v>
       </c>
       <c r="W13" t="n">
-        <v>1146.627342970322</v>
+        <v>900.5794555991647</v>
       </c>
       <c r="X13" t="n">
-        <v>904.063446416127</v>
+        <v>658.0155590449698</v>
       </c>
       <c r="Y13" t="n">
-        <v>904.063446416127</v>
+        <v>431.6727907347118</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1573.500757161562</v>
+        <v>904.5955745973366</v>
       </c>
       <c r="C14" t="n">
-        <v>1573.500757161562</v>
+        <v>904.5955745973366</v>
       </c>
       <c r="D14" t="n">
-        <v>1573.500757161562</v>
+        <v>481.3029537823369</v>
       </c>
       <c r="E14" t="n">
-        <v>1147.523817309419</v>
+        <v>481.3029537823369</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3996354988195</v>
+        <v>481.3029537823369</v>
       </c>
       <c r="G14" t="n">
-        <v>320.0677541164978</v>
+        <v>78.9710724000152</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J14" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K14" t="n">
-        <v>437.0691715610003</v>
+        <v>437.0691715610008</v>
       </c>
       <c r="L14" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848327</v>
       </c>
       <c r="M14" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N14" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O14" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P14" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q14" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R14" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S14" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T14" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U14" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V14" t="n">
-        <v>1780.281499920773</v>
+        <v>1721.652843474699</v>
       </c>
       <c r="W14" t="n">
-        <v>1780.281499920773</v>
+        <v>1721.652843474699</v>
       </c>
       <c r="X14" t="n">
-        <v>1780.281499920773</v>
+        <v>1309.932844642446</v>
       </c>
       <c r="Y14" t="n">
-        <v>1780.281499920773</v>
+        <v>904.5955745973366</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H15" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J15" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577481</v>
       </c>
       <c r="K15" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259964</v>
       </c>
       <c r="L15" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483962</v>
       </c>
       <c r="M15" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N15" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O15" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P15" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q15" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R15" t="n">
         <v>1815.649874842555</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>752.7367968989294</v>
+        <v>915.5789105332456</v>
       </c>
       <c r="C16" t="n">
-        <v>580.7642337778453</v>
+        <v>743.6063474121615</v>
       </c>
       <c r="D16" t="n">
-        <v>417.447460904616</v>
+        <v>580.2895745389322</v>
       </c>
       <c r="E16" t="n">
-        <v>251.2392550574696</v>
+        <v>414.0813686917858</v>
       </c>
       <c r="F16" t="n">
-        <v>251.2392550574696</v>
+        <v>242.2195944663462</v>
       </c>
       <c r="G16" t="n">
-        <v>251.2392550574696</v>
+        <v>76.86297707016746</v>
       </c>
       <c r="H16" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J16" t="n">
         <v>84.71320548484809</v>
@@ -5448,16 +5448,16 @@
         <v>1181.462820193972</v>
       </c>
       <c r="N16" t="n">
-        <v>1295.958075335492</v>
+        <v>1693.990998177372</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.114422406825</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P16" t="n">
-        <v>2088.252358880158</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q16" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R16" t="n">
         <v>2131.215415329222</v>
@@ -5469,19 +5469,19 @@
         <v>2131.215415329222</v>
       </c>
       <c r="U16" t="n">
-        <v>1851.080076955504</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="V16" t="n">
-        <v>1569.368609563532</v>
+        <v>1849.503947937251</v>
       </c>
       <c r="W16" t="n">
-        <v>1294.516205736045</v>
+        <v>1574.651544109764</v>
       </c>
       <c r="X16" t="n">
-        <v>1051.952309181851</v>
+        <v>1332.087647555569</v>
       </c>
       <c r="Y16" t="n">
-        <v>942.9027656109949</v>
+        <v>1105.744879245311</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>146.9845170522273</v>
+        <v>1147.523817309419</v>
       </c>
       <c r="C17" t="n">
-        <v>42.75541829589047</v>
+        <v>1147.523817309419</v>
       </c>
       <c r="D17" t="n">
-        <v>42.75541829589047</v>
+        <v>1147.523817309419</v>
       </c>
       <c r="E17" t="n">
-        <v>42.75541829589047</v>
+        <v>1147.523817309419</v>
       </c>
       <c r="F17" t="n">
-        <v>42.75541829589047</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G17" t="n">
-        <v>42.75541829589047</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H17" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J17" t="n">
         <v>222.2360596072044</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0691715610002</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L17" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M17" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N17" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O17" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P17" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q17" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R17" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S17" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T17" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U17" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V17" t="n">
-        <v>1780.281499920773</v>
+        <v>1955.635165841325</v>
       </c>
       <c r="W17" t="n">
-        <v>1383.89015022112</v>
+        <v>1559.243816141672</v>
       </c>
       <c r="X17" t="n">
-        <v>972.170151388867</v>
+        <v>1147.523817309419</v>
       </c>
       <c r="Y17" t="n">
-        <v>566.8328813437573</v>
+        <v>1147.523817309419</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H18" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I18" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J18" t="n">
-        <v>142.0237151377162</v>
+        <v>165.4810209821281</v>
       </c>
       <c r="K18" t="n">
-        <v>289.8146695059644</v>
+        <v>313.2719753503764</v>
       </c>
       <c r="L18" t="n">
-        <v>496.0652591283642</v>
+        <v>519.5225649727762</v>
       </c>
       <c r="M18" t="n">
-        <v>896.8821538038977</v>
+        <v>763.3527659282777</v>
       </c>
       <c r="N18" t="n">
-        <v>1149.507219438093</v>
+        <v>1015.977831562473</v>
       </c>
       <c r="O18" t="n">
-        <v>1376.999083460952</v>
+        <v>1243.469695585332</v>
       </c>
       <c r="P18" t="n">
-        <v>1556.439737111774</v>
+        <v>1422.910349236154</v>
       </c>
       <c r="Q18" t="n">
         <v>1668.279192602594</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>618.8745345687356</v>
+        <v>845.4008954910278</v>
       </c>
       <c r="C19" t="n">
-        <v>618.8745345687356</v>
+        <v>673.4283323699437</v>
       </c>
       <c r="D19" t="n">
-        <v>618.8745345687356</v>
+        <v>510.1115594967144</v>
       </c>
       <c r="E19" t="n">
-        <v>452.6663287215891</v>
+        <v>343.903353649568</v>
       </c>
       <c r="F19" t="n">
-        <v>280.8045544961495</v>
+        <v>343.903353649568</v>
       </c>
       <c r="G19" t="n">
-        <v>115.4479370999708</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H19" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I19" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J19" t="n">
         <v>162.634922133069</v>
@@ -5679,46 +5679,46 @@
         <v>244.4028516473351</v>
       </c>
       <c r="L19" t="n">
-        <v>730.286235430548</v>
+        <v>353.897341839383</v>
       </c>
       <c r="M19" t="n">
-        <v>1259.384536842193</v>
+        <v>882.9956432510278</v>
       </c>
       <c r="N19" t="n">
-        <v>1373.879791983713</v>
+        <v>1395.523821234428</v>
       </c>
       <c r="O19" t="n">
         <v>1852.309315854113</v>
       </c>
       <c r="P19" t="n">
-        <v>1936.878861502259</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q19" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R19" t="n">
         <v>2131.215415329222</v>
       </c>
       <c r="S19" t="n">
-        <v>1976.771053098196</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="T19" t="n">
-        <v>1737.27866519234</v>
+        <v>1891.723027423367</v>
       </c>
       <c r="U19" t="n">
-        <v>1457.143326818622</v>
+        <v>1611.587689049648</v>
       </c>
       <c r="V19" t="n">
-        <v>1175.431859426651</v>
+        <v>1329.876221657677</v>
       </c>
       <c r="W19" t="n">
-        <v>900.5794555991642</v>
+        <v>1055.02381783019</v>
       </c>
       <c r="X19" t="n">
-        <v>658.0155590449693</v>
+        <v>1035.566864203093</v>
       </c>
       <c r="Y19" t="n">
-        <v>658.0155590449693</v>
+        <v>1035.566864203093</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1596.23804477034</v>
+        <v>1659.293894056919</v>
       </c>
       <c r="C20" t="n">
-        <v>1169.33731478364</v>
+        <v>1232.39316407022</v>
       </c>
       <c r="D20" t="n">
-        <v>746.0446939686403</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E20" t="n">
-        <v>320.0677541164978</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F20" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G20" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H20" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103653</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J20" t="n">
-        <v>222.2360596072049</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K20" t="n">
-        <v>437.0691715610008</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5851800848326</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M20" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N20" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O20" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P20" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q20" t="n">
         <v>2048.8787162726</v>
@@ -5779,25 +5779,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S20" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T20" t="n">
-        <v>1925.631778790233</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U20" t="n">
-        <v>1925.631778790233</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V20" t="n">
-        <v>1925.631778790233</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="W20" t="n">
-        <v>1925.631778790233</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="X20" t="n">
-        <v>1925.631778790233</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="Y20" t="n">
-        <v>1925.631778790233</v>
+        <v>2079.14225834845</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>920.5540468050093</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C21" t="n">
-        <v>803.0481433225141</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D21" t="n">
-        <v>699.2081848377991</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E21" t="n">
-        <v>594.5062511107363</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F21" t="n">
-        <v>500.8604207936405</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G21" t="n">
-        <v>407.8805855396978</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H21" t="n">
-        <v>364.876458247859</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I21" t="n">
-        <v>385.1054302494206</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J21" t="n">
-        <v>464.1447550896847</v>
+        <v>299.0104088577481</v>
       </c>
       <c r="K21" t="n">
-        <v>611.9357094579329</v>
+        <v>446.8013632259964</v>
       </c>
       <c r="L21" t="n">
-        <v>818.1862990803327</v>
+        <v>653.0519528483962</v>
       </c>
       <c r="M21" t="n">
-        <v>1062.016500035834</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N21" t="n">
-        <v>1314.641565670029</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O21" t="n">
-        <v>1542.133429692889</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P21" t="n">
-        <v>1984.016277348648</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q21" t="n">
-        <v>2095.855732839468</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R21" t="n">
-        <v>2137.770914794524</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S21" t="n">
-        <v>2076.394567347005</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T21" t="n">
-        <v>1938.84334949402</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U21" t="n">
-        <v>1754.145807132633</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V21" t="n">
-        <v>1549.1726682719</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W21" t="n">
-        <v>1352.651291105117</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X21" t="n">
-        <v>1189.17394487178</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y21" t="n">
-        <v>1049.481056225072</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>716.1147343627898</v>
+        <v>438.2282902000135</v>
       </c>
       <c r="C22" t="n">
-        <v>544.1421712417058</v>
+        <v>438.2282902000135</v>
       </c>
       <c r="D22" t="n">
-        <v>380.8253983684765</v>
+        <v>280.8045544961495</v>
       </c>
       <c r="E22" t="n">
-        <v>214.6171925213301</v>
+        <v>280.8045544961495</v>
       </c>
       <c r="F22" t="n">
-        <v>42.75541829589048</v>
+        <v>280.8045544961495</v>
       </c>
       <c r="G22" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="H22" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I22" t="n">
         <v>42.75541829589048</v>
@@ -5919,13 +5919,13 @@
         <v>977.5688445445701</v>
       </c>
       <c r="M22" t="n">
-        <v>1093.544903181524</v>
+        <v>1506.667145956215</v>
       </c>
       <c r="N22" t="n">
-        <v>1606.073081164924</v>
+        <v>1749.855293085983</v>
       </c>
       <c r="O22" t="n">
-        <v>1708.527103933054</v>
+        <v>1852.309315854113</v>
       </c>
       <c r="P22" t="n">
         <v>1936.87886150226</v>
@@ -5937,25 +5937,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S22" t="n">
-        <v>2137.770914794524</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T22" t="n">
-        <v>1898.278526888668</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U22" t="n">
-        <v>1650.039771766795</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="V22" t="n">
-        <v>1650.039771766795</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W22" t="n">
-        <v>1375.187367939308</v>
+        <v>907.1349550644663</v>
       </c>
       <c r="X22" t="n">
-        <v>1132.623471385113</v>
+        <v>664.5710585102714</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.2807030748554</v>
+        <v>438.2282902000135</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1591.739820081791</v>
+        <v>1761.365163546004</v>
       </c>
       <c r="C23" t="n">
-        <v>1164.839090095091</v>
+        <v>1334.464433559304</v>
       </c>
       <c r="D23" t="n">
-        <v>1164.839090095091</v>
+        <v>911.1718127443041</v>
       </c>
       <c r="E23" t="n">
-        <v>1164.839090095091</v>
+        <v>485.1948728921618</v>
       </c>
       <c r="F23" t="n">
-        <v>739.714908284491</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="G23" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H23" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I23" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J23" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K23" t="n">
-        <v>454.3844443466718</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L23" t="n">
-        <v>1197.759246481001</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M23" t="n">
-        <v>1506.132097761818</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N23" t="n">
-        <v>2197.834060919214</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O23" t="n">
-        <v>2492.274503919738</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P23" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q23" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R23" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S23" t="n">
-        <v>2944.905897632023</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="T23" t="n">
-        <v>2732.766761627731</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="U23" t="n">
-        <v>2474.572426706402</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="V23" t="n">
-        <v>2117.083011832651</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="W23" t="n">
-        <v>1720.691662132998</v>
+        <v>2998.270796714896</v>
       </c>
       <c r="X23" t="n">
-        <v>1720.691662132998</v>
+        <v>2586.550797882643</v>
       </c>
       <c r="Y23" t="n">
-        <v>1591.739820081791</v>
+        <v>2181.213527837534</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I24" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J24" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434195</v>
       </c>
       <c r="K24" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116678</v>
       </c>
       <c r="L24" t="n">
-        <v>775.8227259189736</v>
+        <v>670.3672256340676</v>
       </c>
       <c r="M24" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N24" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O24" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P24" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q24" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R24" t="n">
         <v>1832.965147628227</v>
@@ -6126,16 +6126,16 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C25" t="n">
-        <v>935.2978981851351</v>
+        <v>935.2978981851346</v>
       </c>
       <c r="D25" t="n">
-        <v>771.9811253119058</v>
+        <v>771.9811253119053</v>
       </c>
       <c r="E25" t="n">
-        <v>605.7729194647593</v>
+        <v>605.7729194647588</v>
       </c>
       <c r="F25" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393194</v>
       </c>
       <c r="G25" t="n">
         <v>268.5545278431409</v>
@@ -6147,52 +6147,52 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J25" t="n">
-        <v>102.0284782705195</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K25" t="n">
-        <v>397.2373026266571</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L25" t="n">
-        <v>883.12068640987</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M25" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N25" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O25" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P25" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706205</v>
       </c>
       <c r="Q25" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="R25" t="n">
-        <v>2996.979054612796</v>
+        <v>2996.979054612795</v>
       </c>
       <c r="S25" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T25" t="n">
         <v>2603.042304475914</v>
       </c>
       <c r="U25" t="n">
-        <v>2322.906966102196</v>
+        <v>2322.906966102195</v>
       </c>
       <c r="V25" t="n">
-        <v>2041.195498710225</v>
+        <v>2041.195498710224</v>
       </c>
       <c r="W25" t="n">
-        <v>1766.343094882738</v>
+        <v>1766.343094882737</v>
       </c>
       <c r="X25" t="n">
-        <v>1523.779198328543</v>
+        <v>1523.779198328542</v>
       </c>
       <c r="Y25" t="n">
-        <v>1297.436430018285</v>
+        <v>1297.436430018284</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1300.843297841468</v>
+        <v>1310.819375089483</v>
       </c>
       <c r="C26" t="n">
-        <v>1300.843297841468</v>
+        <v>1310.819375089483</v>
       </c>
       <c r="D26" t="n">
-        <v>1300.843297841468</v>
+        <v>887.5267542744834</v>
       </c>
       <c r="E26" t="n">
-        <v>1164.839090095091</v>
+        <v>887.5267542744834</v>
       </c>
       <c r="F26" t="n">
-        <v>739.714908284491</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="G26" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H26" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I26" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J26" t="n">
         <v>631.2805511005022</v>
@@ -6241,10 +6241,10 @@
         <v>1741.114913128938</v>
       </c>
       <c r="O26" t="n">
-        <v>2340.035845641986</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P26" t="n">
-        <v>2585.727538982948</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q26" t="n">
         <v>2762.403697278422</v>
@@ -6256,22 +6256,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>2732.766761627731</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U26" t="n">
-        <v>2474.572426706402</v>
+        <v>2686.711562710693</v>
       </c>
       <c r="V26" t="n">
-        <v>2117.083011832651</v>
+        <v>2547.725008258376</v>
       </c>
       <c r="W26" t="n">
-        <v>1720.691662132998</v>
+        <v>2547.725008258376</v>
       </c>
       <c r="X26" t="n">
-        <v>1720.691662132998</v>
+        <v>2136.005009426123</v>
       </c>
       <c r="Y26" t="n">
-        <v>1720.691662132998</v>
+        <v>1730.667739381013</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I27" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J27" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434195</v>
       </c>
       <c r="K27" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116678</v>
       </c>
       <c r="L27" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340676</v>
       </c>
       <c r="M27" t="n">
-        <v>757.210732869537</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N27" t="n">
-        <v>1009.835798503732</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O27" t="n">
-        <v>1237.327662526591</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P27" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R27" t="n">
         <v>1832.965147628227</v>
@@ -6363,19 +6363,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C28" t="n">
-        <v>935.2978981851352</v>
+        <v>935.2978981851351</v>
       </c>
       <c r="D28" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119058</v>
       </c>
       <c r="E28" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647593</v>
       </c>
       <c r="F28" t="n">
         <v>433.9111452393198</v>
       </c>
       <c r="G28" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H28" t="n">
         <v>132.7632098856423</v>
@@ -6396,13 +6396,13 @@
         <v>1524.395656430017</v>
       </c>
       <c r="N28" t="n">
-        <v>2036.923834413417</v>
+        <v>1925.160403493045</v>
       </c>
       <c r="O28" t="n">
-        <v>2517.08018148475</v>
+        <v>2405.316750564379</v>
       </c>
       <c r="P28" t="n">
-        <v>2914.405931706204</v>
+        <v>2802.642500785833</v>
       </c>
       <c r="Q28" t="n">
         <v>3003.534554078097</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1613.553317556011</v>
+        <v>1473.262944133678</v>
       </c>
       <c r="C29" t="n">
-        <v>1186.652587569311</v>
+        <v>1185.799829527769</v>
       </c>
       <c r="D29" t="n">
-        <v>763.3599667543117</v>
+        <v>762.5072087127692</v>
       </c>
       <c r="E29" t="n">
-        <v>337.3830269021693</v>
+        <v>762.5072087127692</v>
       </c>
       <c r="F29" t="n">
         <v>337.3830269021693</v>
@@ -6460,55 +6460,55 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I29" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J29" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K29" t="n">
-        <v>982.926134527205</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L29" t="n">
-        <v>1575.348819368405</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M29" t="n">
-        <v>1883.721670649222</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N29" t="n">
-        <v>2197.834060919214</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O29" t="n">
-        <v>2492.274503919738</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P29" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q29" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R29" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S29" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T29" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U29" t="n">
-        <v>3003.534554078097</v>
+        <v>2686.711562710693</v>
       </c>
       <c r="V29" t="n">
-        <v>3003.534554078097</v>
+        <v>2686.711562710693</v>
       </c>
       <c r="W29" t="n">
-        <v>2850.458950724904</v>
+        <v>2290.32021301104</v>
       </c>
       <c r="X29" t="n">
-        <v>2438.738951892651</v>
+        <v>1878.600214178788</v>
       </c>
       <c r="Y29" t="n">
-        <v>2033.401681847541</v>
+        <v>1473.262944133678</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434195</v>
       </c>
       <c r="K30" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116678</v>
       </c>
       <c r="L30" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340676</v>
       </c>
       <c r="M30" t="n">
-        <v>757.210732869537</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N30" t="n">
-        <v>1009.835798503732</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O30" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P30" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R30" t="n">
         <v>1832.965147628227</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1107.270461306219</v>
+        <v>1107.27046130622</v>
       </c>
       <c r="C31" t="n">
-        <v>935.2978981851352</v>
+        <v>935.2978981851355</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119062</v>
       </c>
       <c r="E31" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647598</v>
       </c>
       <c r="F31" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393203</v>
       </c>
       <c r="G31" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431414</v>
       </c>
       <c r="H31" t="n">
-        <v>132.7632098856423</v>
+        <v>132.7632098856425</v>
       </c>
       <c r="I31" t="n">
-        <v>60.07069108156196</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="J31" t="n">
         <v>179.9501949187404</v>
@@ -6630,28 +6630,28 @@
         <v>994.8841173302415</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N31" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O31" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P31" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706205</v>
       </c>
       <c r="Q31" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="R31" t="n">
-        <v>2996.979054612795</v>
+        <v>2996.979054612796</v>
       </c>
       <c r="S31" t="n">
         <v>2842.53469238177</v>
       </c>
       <c r="T31" t="n">
-        <v>2603.042304475914</v>
+        <v>2603.042304475915</v>
       </c>
       <c r="U31" t="n">
         <v>2322.906966102196</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>889.1232990092153</v>
+        <v>1761.365163546004</v>
       </c>
       <c r="C32" t="n">
-        <v>889.1232990092153</v>
+        <v>1334.464433559304</v>
       </c>
       <c r="D32" t="n">
-        <v>465.8306781942156</v>
+        <v>911.1718127443041</v>
       </c>
       <c r="E32" t="n">
-        <v>337.3830269021693</v>
+        <v>485.1948728921618</v>
       </c>
       <c r="F32" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="G32" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H32" t="n">
         <v>60.07069108156194</v>
@@ -6700,52 +6700,52 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J32" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K32" t="n">
-        <v>454.3844443466718</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L32" t="n">
-        <v>726.9004528705036</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M32" t="n">
-        <v>1035.273304151321</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N32" t="n">
-        <v>1748.899701785409</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O32" t="n">
-        <v>2492.274503919738</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P32" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q32" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R32" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S32" t="n">
-        <v>2944.905897632023</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="T32" t="n">
-        <v>2732.766761627731</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="U32" t="n">
-        <v>2474.572426706402</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="V32" t="n">
-        <v>2117.083011832651</v>
+        <v>2646.045139204346</v>
       </c>
       <c r="W32" t="n">
-        <v>1720.691662132998</v>
+        <v>2592.933526669786</v>
       </c>
       <c r="X32" t="n">
-        <v>1308.971663300745</v>
+        <v>2181.213527837534</v>
       </c>
       <c r="Y32" t="n">
-        <v>1308.971663300745</v>
+        <v>2181.213527837534</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J33" t="n">
-        <v>421.7811819283256</v>
+        <v>316.3256816434197</v>
       </c>
       <c r="K33" t="n">
-        <v>569.5721362965738</v>
+        <v>464.1166360116679</v>
       </c>
       <c r="L33" t="n">
-        <v>775.8227259189736</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M33" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N33" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O33" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P33" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q33" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R33" t="n">
         <v>1832.965147628227</v>
@@ -6855,28 +6855,28 @@
         <v>132.7632098856423</v>
       </c>
       <c r="I34" t="n">
-        <v>60.07069108156196</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="J34" t="n">
         <v>179.9501949187404</v>
       </c>
       <c r="K34" t="n">
-        <v>397.2373026266571</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L34" t="n">
-        <v>883.12068640987</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M34" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N34" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O34" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P34" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q34" t="n">
         <v>3003.534554078097</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1741.379565094869</v>
+        <v>1320.757269945333</v>
       </c>
       <c r="C35" t="n">
-        <v>1317.149160773633</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="D35" t="n">
-        <v>893.8565399586327</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E35" t="n">
-        <v>467.8796001064902</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F35" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G35" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H35" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103614</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610003</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L35" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M35" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N35" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O35" t="n">
         <v>1626.510864636164</v>
       </c>
       <c r="P35" t="n">
-        <v>1872.202557977125</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q35" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R35" t="n">
-        <v>2137.770914794522</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S35" t="n">
-        <v>2137.770914794522</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T35" t="n">
-        <v>2137.770914794522</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U35" t="n">
-        <v>2137.770914794522</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="V35" t="n">
-        <v>2137.770914794522</v>
+        <v>1717.148619644986</v>
       </c>
       <c r="W35" t="n">
-        <v>1741.379565094869</v>
+        <v>1320.757269945333</v>
       </c>
       <c r="X35" t="n">
-        <v>1741.379565094869</v>
+        <v>1320.757269945333</v>
       </c>
       <c r="Y35" t="n">
-        <v>1741.379565094869</v>
+        <v>1320.757269945333</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C36" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D36" t="n">
         <v>377.0871448858306</v>
@@ -7007,25 +7007,25 @@
         <v>178.739380841672</v>
       </c>
       <c r="G36" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H36" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I36" t="n">
-        <v>62.98439029745212</v>
+        <v>62.98439029745215</v>
       </c>
       <c r="J36" t="n">
-        <v>142.0237151377162</v>
+        <v>404.4659091426541</v>
       </c>
       <c r="K36" t="n">
-        <v>289.8146695059644</v>
+        <v>552.2568635109023</v>
       </c>
       <c r="L36" t="n">
-        <v>496.0652591283641</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M36" t="n">
-        <v>739.8954600838655</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N36" t="n">
         <v>1254.962719722999</v>
@@ -7058,10 +7058,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X36" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y36" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>344.7549421005356</v>
+        <v>248.0623214879478</v>
       </c>
       <c r="C37" t="n">
-        <v>344.7549421005356</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="D37" t="n">
-        <v>344.7549421005356</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="E37" t="n">
-        <v>178.5467362533892</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="F37" t="n">
-        <v>178.5467362533892</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="G37" t="n">
-        <v>178.5467362533892</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="H37" t="n">
-        <v>42.75541829589045</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I37" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J37" t="n">
-        <v>162.6349221330689</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K37" t="n">
-        <v>244.402851647335</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L37" t="n">
-        <v>353.897341839383</v>
+        <v>275.9756251911622</v>
       </c>
       <c r="M37" t="n">
-        <v>859.6247907993785</v>
+        <v>805.0739266028069</v>
       </c>
       <c r="N37" t="n">
-        <v>1372.152968782779</v>
+        <v>1317.602104586207</v>
       </c>
       <c r="O37" t="n">
-        <v>1852.309315854112</v>
+        <v>1797.75845165754</v>
       </c>
       <c r="P37" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q37" t="n">
-        <v>2137.770914794522</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R37" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S37" t="n">
-        <v>1976.771053098195</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T37" t="n">
-        <v>1737.27866519234</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U37" t="n">
-        <v>1457.143326818622</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="V37" t="n">
-        <v>1175.43185942665</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W37" t="n">
-        <v>1003.827575677054</v>
+        <v>907.1349550644663</v>
       </c>
       <c r="X37" t="n">
-        <v>761.2636791228592</v>
+        <v>664.5710585102714</v>
       </c>
       <c r="Y37" t="n">
-        <v>534.9209108126013</v>
+        <v>438.2282902000135</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1168.484556742097</v>
+        <v>1247.573895224667</v>
       </c>
       <c r="C38" t="n">
-        <v>1168.484556742097</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="D38" t="n">
-        <v>745.1919359270976</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E38" t="n">
-        <v>745.1919359270976</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F38" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G38" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H38" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103617</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610008</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L38" t="n">
-        <v>709.5851800848327</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M38" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N38" t="n">
         <v>1332.070421635641</v>
@@ -7192,34 +7192,34 @@
         <v>1626.510864636165</v>
       </c>
       <c r="P38" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q38" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R38" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S38" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T38" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U38" t="n">
-        <v>1820.94792342712</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V38" t="n">
-        <v>1820.94792342712</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="W38" t="n">
-        <v>1820.94792342712</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="X38" t="n">
-        <v>1573.821826787207</v>
+        <v>1667.422259516197</v>
       </c>
       <c r="Y38" t="n">
-        <v>1168.484556742097</v>
+        <v>1667.422259516197</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H39" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I39" t="n">
         <v>62.98439029745215</v>
@@ -7256,22 +7256,22 @@
         <v>142.0237151377162</v>
       </c>
       <c r="K39" t="n">
-        <v>552.2568635109025</v>
+        <v>289.8146695059644</v>
       </c>
       <c r="L39" t="n">
-        <v>758.5074531333022</v>
+        <v>496.0652591283642</v>
       </c>
       <c r="M39" t="n">
-        <v>1002.337654088804</v>
+        <v>739.8954600838656</v>
       </c>
       <c r="N39" t="n">
-        <v>1254.962719722999</v>
+        <v>992.5205257180611</v>
       </c>
       <c r="O39" t="n">
-        <v>1482.454583745858</v>
+        <v>1220.01238974092</v>
       </c>
       <c r="P39" t="n">
-        <v>1661.89523739668</v>
+        <v>1399.453043391742</v>
       </c>
       <c r="Q39" t="n">
         <v>1773.7346928875</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>851.9060523202886</v>
+        <v>402.5066837189733</v>
       </c>
       <c r="C40" t="n">
-        <v>679.9334891992046</v>
+        <v>402.5066837189733</v>
       </c>
       <c r="D40" t="n">
-        <v>516.6167163259753</v>
+        <v>402.5066837189733</v>
       </c>
       <c r="E40" t="n">
-        <v>350.4085104788288</v>
+        <v>402.5066837189733</v>
       </c>
       <c r="F40" t="n">
-        <v>178.5467362533892</v>
+        <v>343.903353649568</v>
       </c>
       <c r="G40" t="n">
         <v>178.5467362533892</v>
       </c>
       <c r="H40" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I40" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J40" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K40" t="n">
-        <v>491.6854607613571</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L40" t="n">
-        <v>601.1799509534051</v>
+        <v>275.9756251911622</v>
       </c>
       <c r="M40" t="n">
-        <v>944.901509067952</v>
+        <v>805.0739266028069</v>
       </c>
       <c r="N40" t="n">
-        <v>1059.396764209472</v>
+        <v>1317.602104586207</v>
       </c>
       <c r="O40" t="n">
-        <v>1539.553111280806</v>
+        <v>1797.75845165754</v>
       </c>
       <c r="P40" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q40" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R40" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S40" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T40" t="n">
-        <v>2131.215415329222</v>
+        <v>1898.278526888668</v>
       </c>
       <c r="U40" t="n">
-        <v>1851.080076955504</v>
+        <v>1618.14318851495</v>
       </c>
       <c r="V40" t="n">
-        <v>1569.368609563532</v>
+        <v>1336.431721122979</v>
       </c>
       <c r="W40" t="n">
-        <v>1294.516205736045</v>
+        <v>1061.579317295492</v>
       </c>
       <c r="X40" t="n">
-        <v>1051.952309181851</v>
+        <v>819.0154207412969</v>
       </c>
       <c r="Y40" t="n">
-        <v>1042.072021032354</v>
+        <v>592.672652431039</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>566.8328813437573</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="C41" t="n">
-        <v>139.9321513570574</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="D41" t="n">
-        <v>42.75541829589047</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="E41" t="n">
-        <v>42.75541829589047</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="F41" t="n">
-        <v>42.75541829589047</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G41" t="n">
-        <v>42.75541829589047</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H41" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I41" t="n">
         <v>84.39494262103631</v>
@@ -7429,34 +7429,34 @@
         <v>1626.510864636165</v>
       </c>
       <c r="P41" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q41" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R41" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S41" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T41" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U41" t="n">
-        <v>2137.770914794523</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="V41" t="n">
-        <v>1780.281499920773</v>
+        <v>1463.45850855337</v>
       </c>
       <c r="W41" t="n">
-        <v>1383.89015022112</v>
+        <v>1067.067158853717</v>
       </c>
       <c r="X41" t="n">
-        <v>972.170151388867</v>
+        <v>1067.067158853717</v>
       </c>
       <c r="Y41" t="n">
-        <v>566.8328813437573</v>
+        <v>722.3996354988195</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H42" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I42" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J42" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K42" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L42" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M42" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N42" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O42" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P42" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q42" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R42" t="n">
         <v>1815.649874842555</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>592.6726524310385</v>
+        <v>508.071714973765</v>
       </c>
       <c r="C43" t="n">
-        <v>586.4178021561385</v>
+        <v>508.071714973765</v>
       </c>
       <c r="D43" t="n">
-        <v>423.1010292829092</v>
+        <v>344.7549421005357</v>
       </c>
       <c r="E43" t="n">
-        <v>423.1010292829092</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="F43" t="n">
-        <v>251.2392550574696</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2392550574696</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H43" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I43" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J43" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K43" t="n">
-        <v>491.6854607613571</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L43" t="n">
-        <v>601.1799509534052</v>
+        <v>481.8999867656338</v>
       </c>
       <c r="M43" t="n">
-        <v>717.1560095903586</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N43" t="n">
-        <v>1059.396764209472</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O43" t="n">
-        <v>1539.553111280805</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P43" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q43" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R43" t="n">
-        <v>2137.770914794523</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S43" t="n">
-        <v>2137.770914794523</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T43" t="n">
-        <v>1898.278526888668</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="U43" t="n">
-        <v>1618.14318851495</v>
+        <v>1457.143326818623</v>
       </c>
       <c r="V43" t="n">
-        <v>1336.431721122978</v>
+        <v>1175.431859426652</v>
       </c>
       <c r="W43" t="n">
-        <v>1061.579317295491</v>
+        <v>900.5794555991647</v>
       </c>
       <c r="X43" t="n">
-        <v>819.0154207412965</v>
+        <v>658.0155590449698</v>
       </c>
       <c r="Y43" t="n">
-        <v>592.6726524310385</v>
+        <v>508.071714973765</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1312.585280457884</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="C44" t="n">
-        <v>1312.585280457884</v>
+        <v>1181.908057436129</v>
       </c>
       <c r="D44" t="n">
-        <v>889.292659642884</v>
+        <v>758.6154366211294</v>
       </c>
       <c r="E44" t="n">
-        <v>463.3157197907416</v>
+        <v>758.6154366211294</v>
       </c>
       <c r="F44" t="n">
-        <v>42.75541829589047</v>
+        <v>333.4912548105297</v>
       </c>
       <c r="G44" t="n">
-        <v>42.75541829589047</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H44" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I44" t="n">
-        <v>84.39494262103618</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J44" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K44" t="n">
         <v>437.0691715610004</v>
       </c>
       <c r="L44" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848329</v>
       </c>
       <c r="M44" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N44" t="n">
         <v>1332.070421635641</v>
@@ -7666,34 +7666,34 @@
         <v>1626.510864636165</v>
       </c>
       <c r="P44" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q44" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R44" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S44" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T44" t="n">
-        <v>2137.770914794523</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U44" t="n">
-        <v>2137.770914794523</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V44" t="n">
-        <v>2137.770914794523</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="W44" t="n">
-        <v>2137.770914794523</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="X44" t="n">
-        <v>2137.770914794523</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="Y44" t="n">
-        <v>1732.433644749414</v>
+        <v>1608.808787422829</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H45" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I45" t="n">
         <v>62.98439029745215</v>
@@ -7736,10 +7736,10 @@
         <v>496.0652591283642</v>
       </c>
       <c r="M45" t="n">
-        <v>1002.337654088804</v>
+        <v>739.8954600838656</v>
       </c>
       <c r="N45" t="n">
-        <v>1254.962719722999</v>
+        <v>992.5205257180611</v>
       </c>
       <c r="O45" t="n">
         <v>1482.454583745858</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>713.0806940275</v>
+        <v>709.4987886378846</v>
       </c>
       <c r="C46" t="n">
-        <v>673.4283323699437</v>
+        <v>709.4987886378846</v>
       </c>
       <c r="D46" t="n">
-        <v>510.1115594967144</v>
+        <v>546.1820157646553</v>
       </c>
       <c r="E46" t="n">
-        <v>343.903353649568</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="F46" t="n">
-        <v>343.903353649568</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="G46" t="n">
-        <v>178.5467362533892</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H46" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I46" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J46" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K46" t="n">
-        <v>244.4028516473351</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L46" t="n">
-        <v>730.286235430548</v>
+        <v>481.8999867656338</v>
       </c>
       <c r="M46" t="n">
-        <v>1259.384536842193</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N46" t="n">
-        <v>1373.879791983713</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O46" t="n">
-        <v>1854.036139055046</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P46" t="n">
-        <v>2088.252358880158</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q46" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R46" t="n">
-        <v>2137.770914794523</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S46" t="n">
-        <v>1983.326552563498</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T46" t="n">
-        <v>1743.834164657642</v>
+        <v>1930.418227980092</v>
       </c>
       <c r="U46" t="n">
-        <v>1463.698826283924</v>
+        <v>1650.282889606374</v>
       </c>
       <c r="V46" t="n">
-        <v>1181.987358891953</v>
+        <v>1368.571422214403</v>
       </c>
       <c r="W46" t="n">
-        <v>1181.987358891953</v>
+        <v>1368.571422214403</v>
       </c>
       <c r="X46" t="n">
-        <v>939.423462337758</v>
+        <v>1126.007525660208</v>
       </c>
       <c r="Y46" t="n">
-        <v>713.0806940275</v>
+        <v>899.6647573499502</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>134.8781695713334</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>265.0931252575129</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>230.6754375026609</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5174992961649</v>
+        <v>231.372656757204</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>134.8781695713334</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9093,16 +9093,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>417.2951947219101</v>
+        <v>417.2951947219102</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>209.331103319707</v>
       </c>
       <c r="P16" t="n">
-        <v>229.8670614395824</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>158.5724178990224</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9327,16 +9327,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>417.2951947219101</v>
+        <v>417.2951947219102</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>379.7732334366363</v>
+        <v>357.9105776278333</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>134.8781695713334</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9567,16 +9567,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>417.2951947219102</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>129.9928201901495</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>145.2345574960201</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>152.9025226039384</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>475.6149430409063</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>381.4036089771763</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>307.5560500126506</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>265.0931252575131</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>215.5968634766379</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891631</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>307.556050012651</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>307.5560500126506</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>402.0534574160406</v>
+        <v>289.1611029510186</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.01016813891724</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>533.8804951318516</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>323.138056886231</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>307.5560500126506</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>304.8202520630811</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891631</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10360,19 +10360,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>403.5495023879764</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>453.4690496301064</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>307.556050012651</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>265.0931252575131</v>
+        <v>134.8781695713335</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>136.8880587814652</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891722</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>265.0931252575131</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10752,7 +10752,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>393.6882730535778</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
@@ -10761,10 +10761,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>208.0044056307796</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>265.0931252575133</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>230.0459590682762</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>208.0044056307796</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>208.0044056307794</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N43" t="n">
-        <v>230.0459590682759</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11384,13 +11384,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>265.0931252575132</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>208.0044056307794</v>
       </c>
       <c r="M46" t="n">
-        <v>417.2951947219101</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>151.1582567444099</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>40.11185119329008</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>145.8336711561952</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.9104773416075</v>
+        <v>171.3187138489722</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>163.7030512222169</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.489944470648567</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>210.936945316996</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>238.6857148993178</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.0177446442482</v>
@@ -23560,10 +23560,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>100.6669215913895</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>116.1202924920084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>319.4449149180595</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -23743,13 +23743,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>210.0177446442482</v>
@@ -23791,7 +23791,7 @@
         <v>255.612391572116</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>231.64249914296</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>149.5146947934736</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>220.8758734978272</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.550083968921</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>83.90843673637869</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U20" t="n">
         <v>255.612391572116</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>5.834106797671694</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S22" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>31.57761741932663</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>387.2163164130876</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>273.6215737139632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24448,10 +24448,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>287.0730047847076</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>216.3178318172185</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>138.0432392269828</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>398.3085625684984</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U29" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>240.8825888829955</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>294.5539956744952</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>339.8469397934424</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25156,10 +25156,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>2.643622408808426</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U35" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>251.1532099806998</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>38.96459694577592</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -25329,10 +25329,10 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I37" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>102.2156388771118</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>72.4515409734592</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25456,10 +25456,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>162.9479631704166</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>112.1258597144739</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S40" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T40" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.2978553591541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>322.8547288762944</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -25642,10 +25642,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U41" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>60.06304922331049</v>
       </c>
     </row>
     <row r="42">
@@ -25788,16 +25788,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>164.0605357177221</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>163.7030512222169</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>75.63493499666262</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>4.518241512591203</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3085625684984</v>
+        <v>385.0192968814069</v>
       </c>
       <c r="H44" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25933,7 +25933,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>130.9969994488924</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I46" t="n">
         <v>71.96559361603954</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>191.2081671598737</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>317684.6659428705</v>
+        <v>317684.6659428707</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>317684.6659428705</v>
+        <v>317684.6659428706</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>431561.9187670313</v>
+        <v>431561.9187670314</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>317684.6659428705</v>
+        <v>317684.6659428706</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>317684.6659428705</v>
+        <v>317684.6659428707</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>317684.6659428706</v>
+        <v>317684.6659428707</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>317684.6659428707</v>
+        <v>317684.6659428705</v>
       </c>
     </row>
   </sheetData>
@@ -26319,13 +26319,13 @@
         <v>502037.5599860538</v>
       </c>
       <c r="D2" t="n">
-        <v>502037.5599860537</v>
+        <v>502037.5599860538</v>
       </c>
       <c r="E2" t="n">
+        <v>298537.2081436684</v>
+      </c>
+      <c r="F2" t="n">
         <v>298537.2081436682</v>
-      </c>
-      <c r="F2" t="n">
-        <v>298537.2081436681</v>
       </c>
       <c r="G2" t="n">
         <v>298537.2081436682</v>
@@ -26346,10 +26346,10 @@
         <v>374679.9341224728</v>
       </c>
       <c r="M2" t="n">
+        <v>298537.2081436684</v>
+      </c>
+      <c r="N2" t="n">
         <v>298537.2081436682</v>
-      </c>
-      <c r="N2" t="n">
-        <v>298537.2081436681</v>
       </c>
       <c r="O2" t="n">
         <v>298537.2081436682</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160787</v>
+        <v>79247.32527160775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,31 +26429,31 @@
         <v>19590.20678464904</v>
       </c>
       <c r="F4" t="n">
+        <v>19590.20678464904</v>
+      </c>
+      <c r="G4" t="n">
         <v>19590.20678464903</v>
       </c>
-      <c r="G4" t="n">
-        <v>19590.20678464904</v>
-      </c>
       <c r="H4" t="n">
+        <v>19590.20678464903</v>
+      </c>
+      <c r="I4" t="n">
+        <v>57457.91431298881</v>
+      </c>
+      <c r="J4" t="n">
+        <v>57457.91431298881</v>
+      </c>
+      <c r="K4" t="n">
+        <v>57457.91431298881</v>
+      </c>
+      <c r="L4" t="n">
+        <v>57457.91431298884</v>
+      </c>
+      <c r="M4" t="n">
         <v>19590.20678464905</v>
       </c>
-      <c r="I4" t="n">
-        <v>57457.91431298883</v>
-      </c>
-      <c r="J4" t="n">
-        <v>57457.91431298884</v>
-      </c>
-      <c r="K4" t="n">
-        <v>57457.91431298883</v>
-      </c>
-      <c r="L4" t="n">
-        <v>57457.91431298885</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19590.20678464903</v>
-      </c>
       <c r="N4" t="n">
-        <v>19590.20678464904</v>
+        <v>19590.20678464905</v>
       </c>
       <c r="O4" t="n">
         <v>19590.20678464904</v>
@@ -26481,13 +26481,13 @@
         <v>43269.71441650125</v>
       </c>
       <c r="F5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="G5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="H5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="I5" t="n">
         <v>56429.32173361156</v>
@@ -26502,16 +26502,16 @@
         <v>56429.32173361156</v>
       </c>
       <c r="M5" t="n">
-        <v>43269.71441650123</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="N5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="O5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="P5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146652.6574361318</v>
+        <v>146630.9437946355</v>
       </c>
       <c r="C6" t="n">
-        <v>146652.6574361318</v>
+        <v>146630.9437946355</v>
       </c>
       <c r="D6" t="n">
-        <v>146652.6574361317</v>
+        <v>146630.9437946354</v>
       </c>
       <c r="E6" t="n">
-        <v>-321012.3689797358</v>
+        <v>-321615.5121979245</v>
       </c>
       <c r="F6" t="n">
-        <v>235677.2869425179</v>
+        <v>235074.143724329</v>
       </c>
       <c r="G6" t="n">
-        <v>235677.2869425179</v>
+        <v>235074.1437243291</v>
       </c>
       <c r="H6" t="n">
-        <v>235677.2869425179</v>
+        <v>235074.1437243291</v>
       </c>
       <c r="I6" t="n">
-        <v>203236.5148953906</v>
+        <v>202850.9223228554</v>
       </c>
       <c r="J6" t="n">
-        <v>260792.6980758723</v>
+        <v>260407.1055033371</v>
       </c>
       <c r="K6" t="n">
-        <v>260792.6980758724</v>
+        <v>260407.1055033373</v>
       </c>
       <c r="L6" t="n">
-        <v>260792.6980758724</v>
+        <v>260407.1055033372</v>
       </c>
       <c r="M6" t="n">
-        <v>156429.9616709101</v>
+        <v>155826.8184527214</v>
       </c>
       <c r="N6" t="n">
-        <v>235677.2869425179</v>
+        <v>235074.1437243291</v>
       </c>
       <c r="O6" t="n">
-        <v>235677.2869425179</v>
+        <v>235074.1437243291</v>
       </c>
       <c r="P6" t="n">
-        <v>235677.286942518</v>
+        <v>235074.1437243291</v>
       </c>
     </row>
   </sheetData>
@@ -26752,19 +26752,19 @@
         <v>494.2934179644262</v>
       </c>
       <c r="G3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="H3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="I3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="J3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="K3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="L3" t="n">
         <v>494.2934179644261</v>
@@ -26801,10 +26801,10 @@
         <v>534.442728698631</v>
       </c>
       <c r="F4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="G4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="H4" t="n">
         <v>534.442728698631</v>
@@ -26822,16 +26822,16 @@
         <v>750.8836385195242</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986306</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="O4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="P4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777382</v>
+        <v>318.0018188777377</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J17" t="n">
         <v>168.6534109867667</v>
@@ -32241,16 +32241,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L17" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M17" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N17" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O17" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P17" t="n">
         <v>285.7487894273646</v>
@@ -32262,7 +32262,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S17" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T17" t="n">
         <v>8.698570601564924</v>
@@ -32311,7 +32311,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I18" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J18" t="n">
         <v>100.4488161921859</v>
@@ -32344,7 +32344,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T18" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U18" t="n">
         <v>0.06994718178741882</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H19" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I19" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
@@ -32411,7 +32411,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P19" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q19" t="n">
         <v>74.63830611262834</v>
@@ -32423,10 +32423,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T19" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,10 +32466,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H20" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I20" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J20" t="n">
         <v>168.6534109867667</v>
@@ -32478,19 +32478,19 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L20" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M20" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N20" t="n">
-        <v>354.5648655314068</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O20" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P20" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q20" t="n">
         <v>214.5854405596218</v>
@@ -32499,13 +32499,13 @@
         <v>124.822749411891</v>
       </c>
       <c r="S20" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T20" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I21" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J21" t="n">
         <v>100.4488161921859</v>
@@ -32572,19 +32572,19 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q21" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R21" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S21" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T21" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H22" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I22" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J22" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K22" t="n">
         <v>103.5585226489404</v>
@@ -32648,22 +32648,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P22" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R22" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S22" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T22" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,10 +32703,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H23" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I23" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J23" t="n">
         <v>168.6534109867667</v>
@@ -32715,19 +32715,19 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L23" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M23" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N23" t="n">
-        <v>354.5648655314068</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O23" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P23" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q23" t="n">
         <v>214.5854405596218</v>
@@ -32736,13 +32736,13 @@
         <v>124.822749411891</v>
       </c>
       <c r="S23" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T23" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I24" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J24" t="n">
         <v>100.4488161921859</v>
@@ -32809,19 +32809,19 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R24" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S24" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T24" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H25" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I25" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J25" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K25" t="n">
         <v>103.5585226489404</v>
@@ -32885,22 +32885,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P25" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R25" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S25" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T25" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,10 +32940,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H26" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I26" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J26" t="n">
         <v>168.6534109867667</v>
@@ -32952,19 +32952,19 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L26" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M26" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N26" t="n">
-        <v>354.5648655314068</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O26" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P26" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q26" t="n">
         <v>214.5854405596218</v>
@@ -32973,13 +32973,13 @@
         <v>124.822749411891</v>
       </c>
       <c r="S26" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T26" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I27" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J27" t="n">
         <v>100.4488161921859</v>
@@ -33046,19 +33046,19 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R27" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S27" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T27" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H28" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I28" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J28" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K28" t="n">
         <v>103.5585226489404</v>
@@ -33122,22 +33122,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P28" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R28" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S28" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T28" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,10 +33177,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H29" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I29" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J29" t="n">
         <v>168.6534109867667</v>
@@ -33189,19 +33189,19 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L29" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M29" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N29" t="n">
-        <v>354.5648655314068</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O29" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P29" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q29" t="n">
         <v>214.5854405596218</v>
@@ -33210,13 +33210,13 @@
         <v>124.822749411891</v>
       </c>
       <c r="S29" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T29" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I30" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J30" t="n">
         <v>100.4488161921859</v>
@@ -33283,19 +33283,19 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R30" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S30" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T30" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H31" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I31" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K31" t="n">
         <v>103.5585226489404</v>
@@ -33359,22 +33359,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P31" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R31" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S31" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T31" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,10 +33414,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H32" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I32" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J32" t="n">
         <v>168.6534109867667</v>
@@ -33432,13 +33432,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N32" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O32" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P32" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q32" t="n">
         <v>214.5854405596218</v>
@@ -33450,10 +33450,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T32" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33520,10 +33520,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R33" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S33" t="n">
         <v>19.74842099131456</v>
@@ -33532,7 +33532,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H34" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I34" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K34" t="n">
         <v>103.5585226489404</v>
@@ -33599,13 +33599,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R34" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S34" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T34" t="n">
         <v>3.80849026956197</v>
@@ -33651,10 +33651,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H35" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I35" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J35" t="n">
         <v>168.6534109867667</v>
@@ -33669,13 +33669,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N35" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O35" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P35" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q35" t="n">
         <v>214.5854405596218</v>
@@ -33687,10 +33687,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T35" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33757,10 +33757,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R36" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S36" t="n">
         <v>19.74842099131456</v>
@@ -33769,7 +33769,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H37" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I37" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J37" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K37" t="n">
         <v>103.5585226489404</v>
@@ -33836,13 +33836,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R37" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S37" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T37" t="n">
         <v>3.80849026956197</v>
@@ -33888,10 +33888,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H38" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I38" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J38" t="n">
         <v>168.6534109867667</v>
@@ -33906,13 +33906,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N38" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O38" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q38" t="n">
         <v>214.5854405596218</v>
@@ -33924,10 +33924,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T38" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33994,10 +33994,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R39" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S39" t="n">
         <v>19.74842099131456</v>
@@ -34006,7 +34006,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H40" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I40" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K40" t="n">
         <v>103.5585226489404</v>
@@ -34073,13 +34073,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R40" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S40" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T40" t="n">
         <v>3.80849026956197</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J12" t="n">
-        <v>79.83770185885257</v>
+        <v>214.715871430186</v>
       </c>
       <c r="K12" t="n">
         <v>149.2837922911599</v>
@@ -35503,7 +35503,7 @@
         <v>255.1768339739349</v>
       </c>
       <c r="O12" t="n">
-        <v>494.8828868967645</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P12" t="n">
         <v>181.2531855058807</v>
@@ -35512,7 +35512,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R12" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K13" t="n">
-        <v>313.2693056988894</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L13" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M13" t="n">
         <v>117.1475339767207</v>
       </c>
       <c r="N13" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O13" t="n">
-        <v>485.006411183165</v>
+        <v>334.8615686442041</v>
       </c>
       <c r="P13" t="n">
         <v>401.3391416378324</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885257</v>
+        <v>214.715871430186</v>
       </c>
       <c r="K15" t="n">
         <v>149.2837922911599</v>
@@ -35743,13 +35743,13 @@
         <v>229.7897616392516</v>
       </c>
       <c r="P15" t="n">
-        <v>446.3463107633935</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q15" t="n">
         <v>112.969146960424</v>
       </c>
       <c r="R15" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35813,16 +35813,16 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M16" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N16" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O16" t="n">
-        <v>485.006411183165</v>
+        <v>312.8200152067071</v>
       </c>
       <c r="P16" t="n">
-        <v>315.2908449225586</v>
+        <v>85.42378348297618</v>
       </c>
       <c r="Q16" t="n">
         <v>50.0187433478434</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J17" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K17" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L17" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M17" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N17" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O17" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P17" t="n">
         <v>248.1734276171333</v>
@@ -35907,7 +35907,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R17" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885255</v>
+        <v>79.83770185885257</v>
       </c>
       <c r="K18" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L18" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M18" t="n">
-        <v>404.8655501773066</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O18" t="n">
         <v>229.7897616392516</v>
@@ -35983,7 +35983,7 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.969146960424</v>
+        <v>247.8473165317573</v>
       </c>
       <c r="R18" t="n">
         <v>148.85927498986</v>
@@ -36044,22 +36044,22 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K19" t="n">
-        <v>82.59386819622839</v>
+        <v>82.5938681962284</v>
       </c>
       <c r="L19" t="n">
-        <v>490.7912967507202</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M19" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N19" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O19" t="n">
-        <v>483.2621453236364</v>
+        <v>461.3994895148334</v>
       </c>
       <c r="P19" t="n">
-        <v>85.42378348297616</v>
+        <v>85.42378348297618</v>
       </c>
       <c r="Q19" t="n">
         <v>202.9212659517818</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J20" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K20" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L20" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M20" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N20" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O20" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P20" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q20" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550239</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J21" t="n">
-        <v>79.83770185885255</v>
+        <v>214.715871430186</v>
       </c>
       <c r="K21" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L21" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M21" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N21" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O21" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P21" t="n">
-        <v>446.3463107633938</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R21" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,19 +36284,19 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L22" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M22" t="n">
-        <v>117.1475339767207</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N22" t="n">
-        <v>517.7052302862629</v>
+        <v>245.6445930603719</v>
       </c>
       <c r="O22" t="n">
         <v>103.4889118870001</v>
       </c>
       <c r="P22" t="n">
-        <v>230.6583409789962</v>
+        <v>85.42378348297618</v>
       </c>
       <c r="Q22" t="n">
         <v>202.9212659517818</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J23" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K23" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L23" t="n">
-        <v>750.8836385195242</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M23" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N23" t="n">
-        <v>698.6888516741371</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O23" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P23" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q23" t="n">
-        <v>178.4607659550237</v>
+        <v>486.0168159676743</v>
       </c>
       <c r="R23" t="n">
-        <v>89.79009951709452</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J24" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301859</v>
       </c>
       <c r="K24" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L24" t="n">
-        <v>473.427054169028</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M24" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N24" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O24" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P24" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R24" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K25" t="n">
-        <v>298.1907316728663</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L25" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M25" t="n">
-        <v>534.8601405048234</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N25" t="n">
-        <v>517.7052302862629</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O25" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P25" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148675971</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J26" t="n">
         <v>534.9195310038328</v>
       </c>
       <c r="K26" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L26" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M26" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N26" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O26" t="n">
-        <v>604.9706389020689</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P26" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q26" t="n">
-        <v>178.4607659550237</v>
+        <v>486.0168159676743</v>
       </c>
       <c r="R26" t="n">
         <v>243.5665220198734</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J27" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301859</v>
       </c>
       <c r="K27" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L27" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M27" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N27" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O27" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P27" t="n">
-        <v>446.3463107633938</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,22 +36758,22 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L28" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M28" t="n">
-        <v>534.8601405048234</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N28" t="n">
-        <v>517.7052302862629</v>
+        <v>404.812875821241</v>
       </c>
       <c r="O28" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P28" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.02891148676062</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J29" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K29" t="n">
-        <v>750.8836385195242</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L29" t="n">
-        <v>598.4067523648489</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M29" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N29" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O29" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P29" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q29" t="n">
-        <v>178.4607659550237</v>
+        <v>486.0168159676743</v>
       </c>
       <c r="R29" t="n">
-        <v>89.79009951709452</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301859</v>
       </c>
       <c r="K30" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L30" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M30" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N30" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O30" t="n">
-        <v>494.8828868967647</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P30" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,22 +36995,22 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L31" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M31" t="n">
-        <v>421.9677860398018</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N31" t="n">
-        <v>517.7052302862629</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O31" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P31" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q31" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148675971</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J32" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K32" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L32" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M32" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N32" t="n">
-        <v>720.8347450849373</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O32" t="n">
-        <v>750.8836385195242</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P32" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q32" t="n">
-        <v>178.4607659550237</v>
+        <v>486.0168159676748</v>
       </c>
       <c r="R32" t="n">
-        <v>89.79009951709452</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J33" t="n">
-        <v>344.9308271163657</v>
+        <v>214.7158714301861</v>
       </c>
       <c r="K33" t="n">
         <v>149.2837922911598</v>
@@ -37162,16 +37162,16 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O33" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P33" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R33" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,16 +37229,16 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K34" t="n">
-        <v>219.4819269776936</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L34" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M34" t="n">
         <v>534.8601405048234</v>
       </c>
       <c r="N34" t="n">
-        <v>517.7052302862629</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O34" t="n">
         <v>485.006411183165</v>
@@ -37247,7 +37247,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148676062</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J35" t="n">
         <v>139.2334515011802</v>
@@ -37311,25 +37311,25 @@
         <v>217.0031433876725</v>
       </c>
       <c r="L35" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M35" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N35" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O35" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P35" t="n">
-        <v>248.1734276171327</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q35" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R35" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709496</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J36" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163657</v>
       </c>
       <c r="K36" t="n">
         <v>149.2837922911598</v>
@@ -37396,19 +37396,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N36" t="n">
-        <v>520.2699592314481</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O36" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P36" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R36" t="n">
-        <v>42.33856763136923</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K37" t="n">
         <v>82.59386819622839</v>
@@ -37472,19 +37472,19 @@
         <v>110.6004951434828</v>
       </c>
       <c r="M37" t="n">
-        <v>510.8358070302985</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N37" t="n">
-        <v>517.7052302862629</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O37" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P37" t="n">
-        <v>85.42378348297615</v>
+        <v>293.4281891137558</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J38" t="n">
         <v>139.2334515011802</v>
@@ -37548,22 +37548,22 @@
         <v>217.0031433876725</v>
       </c>
       <c r="L38" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M38" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N38" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O38" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894187</v>
       </c>
       <c r="P38" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R38" t="n">
         <v>89.79009951709452</v>
@@ -37624,7 +37624,7 @@
         <v>79.83770185885255</v>
       </c>
       <c r="K39" t="n">
-        <v>414.376917548673</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L39" t="n">
         <v>208.3339289115149</v>
@@ -37636,16 +37636,16 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O39" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P39" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.9691469604239</v>
+        <v>378.0622722179372</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136923</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K40" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L40" t="n">
         <v>110.6004951434828</v>
       </c>
       <c r="M40" t="n">
-        <v>347.1934930449969</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N40" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O40" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P40" t="n">
-        <v>401.3391416378323</v>
+        <v>293.4281891137558</v>
       </c>
       <c r="Q40" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J42" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K42" t="n">
         <v>149.2837922911598</v>
@@ -37876,13 +37876,13 @@
         <v>229.7897616392516</v>
       </c>
       <c r="P42" t="n">
-        <v>446.3463107633938</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q42" t="n">
         <v>112.969146960424</v>
       </c>
       <c r="R42" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K43" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L43" t="n">
-        <v>110.6004951434828</v>
+        <v>318.6049007742622</v>
       </c>
       <c r="M43" t="n">
-        <v>117.1475339767207</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N43" t="n">
-        <v>345.6977319384983</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O43" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P43" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,13 +38022,13 @@
         <v>217.0031433876725</v>
       </c>
       <c r="L44" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786187</v>
       </c>
       <c r="M44" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N44" t="n">
-        <v>317.2852426969611</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O44" t="n">
         <v>297.4145888894179</v>
@@ -38104,13 +38104,13 @@
         <v>208.3339289115149</v>
       </c>
       <c r="M45" t="n">
-        <v>511.3862575357974</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N45" t="n">
         <v>255.1768339739348</v>
       </c>
       <c r="O45" t="n">
-        <v>229.7897616392516</v>
+        <v>494.8828868967647</v>
       </c>
       <c r="P45" t="n">
         <v>181.2531855058807</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K46" t="n">
         <v>82.59386819622839</v>
       </c>
       <c r="L46" t="n">
-        <v>490.7912967507202</v>
+        <v>318.6049007742622</v>
       </c>
       <c r="M46" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N46" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O46" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P46" t="n">
-        <v>236.582040227386</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q46" t="n">
         <v>50.0187433478434</v>
